--- a/DFA - Copy.xlsx
+++ b/DFA - Copy.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="98">
   <si>
     <t>Hygiene</t>
   </si>
@@ -318,9 +318,6 @@
   </si>
   <si>
     <t>Tangan</t>
-  </si>
-  <si>
-    <t>ba</t>
   </si>
 </sst>
 </file>
@@ -440,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -452,12 +449,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -476,6 +467,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -761,54 +761,54 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:Z88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W51" sqref="W51"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Z71" sqref="Z71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="7"/>
-    <col min="5" max="5" width="15.7109375" style="7" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="7"/>
-    <col min="9" max="9" width="9.7109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="7"/>
-    <col min="11" max="11" width="13.85546875" style="7" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="7"/>
-    <col min="13" max="13" width="18" style="7" customWidth="1"/>
-    <col min="14" max="18" width="9.140625" style="7"/>
-    <col min="19" max="19" width="13.140625" style="7" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" style="7" customWidth="1"/>
-    <col min="21" max="21" width="12" style="7" customWidth="1"/>
-    <col min="22" max="23" width="9.140625" style="7"/>
-    <col min="24" max="24" width="24.140625" style="7" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="4" width="9.140625" style="5"/>
+    <col min="5" max="5" width="15.7109375" style="5" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="5"/>
+    <col min="9" max="9" width="9.7109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="13.85546875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="5"/>
+    <col min="13" max="13" width="18" style="5" customWidth="1"/>
+    <col min="14" max="18" width="9.140625" style="5"/>
+    <col min="19" max="19" width="13.140625" style="5" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="5" customWidth="1"/>
+    <col min="21" max="21" width="12" style="5" customWidth="1"/>
+    <col min="22" max="23" width="9.140625" style="5"/>
+    <col min="24" max="24" width="24.140625" style="5" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4" t="s">
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="4"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="11"/>
       <c r="S3" s="1" t="s">
         <v>11</v>
       </c>
@@ -818,7 +818,7 @@
       <c r="U3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="11" t="s">
         <v>16</v>
       </c>
       <c r="W3" s="1" t="s">
@@ -827,32 +827,32 @@
       <c r="X3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Z3" s="4"/>
+      <c r="Z3" s="11"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -894,7 +894,7 @@
       <c r="U4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="4"/>
+      <c r="V4" s="11"/>
       <c r="W4" s="1" t="s">
         <v>97</v>
       </c>
@@ -910,21 +910,21 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f>F5+5</f>
-        <v>5</v>
+        <f>F5</f>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
-        <f>G5</f>
-        <v>10</v>
+        <f>G5-5</f>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
-        <f>H5</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="11" t="s">
+        <f>H5+10</f>
+        <v>10</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="1">
@@ -984,36 +984,33 @@
         <v>34</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="X5" s="1" t="b">
-        <f>IF(OR(G5 - 5 &lt;= -5, H5+10 &gt;= 20),"Null")</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="1" t="b">
-        <f>IF(OR(G5 - 5 &lt;= -5, H5+5 &gt;= 20),"Null")</f>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="1" t="b">
-        <f>IF(OR(G5 - 5 &lt;= -5, H5+10 &gt;= 20),"Null")</f>
-        <v>0</v>
+      <c r="X5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <f t="shared" ref="A6:A68" si="0">F6+5</f>
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" ref="B6:B68" si="1">G6</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" ref="C6:C68" si="2">H6</f>
-        <v>5</v>
+      <c r="A6" s="4">
+        <f t="shared" ref="A6:A68" si="0">F6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="4">
+        <f t="shared" ref="B6:B68" si="1">G6-5</f>
+        <v>-5</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" ref="C6:C68" si="2">H6+10</f>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>43</v>
@@ -1021,13 +1018,13 @@
       <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-      <c r="H6" s="10">
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
         <v>5</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -1083,31 +1080,31 @@
       <c r="W6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="X6" s="1" t="str">
-        <f t="shared" ref="X6:X68" si="11">IF(OR(G6 - 5 &lt;= -5, H6+10 &gt;= 20),"Null")</f>
-        <v>Null</v>
-      </c>
-      <c r="Y6" s="1" t="str">
-        <f t="shared" ref="Y6:Y68" si="12">IF(OR(G6 - 5 &lt;= -5, H6+5 &gt;= 20),"Null")</f>
-        <v>Null</v>
-      </c>
-      <c r="Z6" s="1" t="str">
-        <f t="shared" ref="Z6:Z68" si="13">IF(OR(G6 - 5 &lt;= -5, H6+10 &gt;= 20),"Null")</f>
-        <v>Null</v>
+      <c r="X6" s="4" t="str">
+        <f t="shared" ref="X6:X68" si="11">IF(OR(G6 - 5 &lt;= -5, H6+10 &gt;= 20),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="Y6" s="4" t="str">
+        <f t="shared" ref="Y6:Y68" si="12">IF(OR(G6 - 5 &lt;= -5, H6+5 &gt;= 20),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="Z6" s="4" t="str">
+        <f t="shared" ref="Z6:Z68" si="13">IF(OR(G6 - 5 &lt;= -5, H6+10 &gt;= 20),"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="C7" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>45</v>
@@ -1177,31 +1174,31 @@
       <c r="W7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="X7" s="1" t="str">
+      <c r="X7" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y7" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y7" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Null</v>
-      </c>
-      <c r="Z7" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Z7" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
+        <v>-5</v>
+      </c>
+      <c r="C8" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>44</v>
@@ -1271,31 +1268,31 @@
       <c r="W8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="X8" s="1" t="str">
+      <c r="X8" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y8" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y8" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Null</v>
-      </c>
-      <c r="Z8" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Z8" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
@@ -1314,7 +1311,7 @@
         <v>42</v>
       </c>
       <c r="J9" s="1" t="str">
-        <f t="shared" ref="J6:J68" si="14">IF(G9+15 &gt;= 20, "-")</f>
+        <f t="shared" ref="J9:J67" si="14">IF(G9+15 &gt;= 20, "-")</f>
         <v>-</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -1324,7 +1321,7 @@
         <v>42</v>
       </c>
       <c r="M9" s="1" t="str">
-        <f t="shared" ref="M6:M68" si="15">IF(G9+15 &gt;= 20, "-")</f>
+        <f t="shared" ref="M9:M67" si="15">IF(G9+15 &gt;= 20, "-")</f>
         <v>-</v>
       </c>
       <c r="N9" s="1" t="str">
@@ -1363,31 +1360,28 @@
       <c r="W9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="X9" s="1" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="1" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="X9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
@@ -1455,31 +1449,28 @@
       <c r="W10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="X10" s="1" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="1" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="X10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
@@ -1547,31 +1538,30 @@
       <c r="W11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X11" s="1" t="str">
+      <c r="X11" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y11" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z11" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
@@ -1639,31 +1629,31 @@
       <c r="W12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="X12" s="1" t="str">
+      <c r="X12" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y12" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y12" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Null</v>
-      </c>
-      <c r="Z12" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Z12" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
@@ -1690,7 +1680,7 @@
         <v>43</v>
       </c>
       <c r="L13" s="1" t="str">
-        <f t="shared" ref="L6:L68" si="16">IF(G13+10&gt;= 20, "-")</f>
+        <f t="shared" ref="L13:L67" si="16">IF(G13+10&gt;= 20, "-")</f>
         <v>-</v>
       </c>
       <c r="M13" s="1" t="str">
@@ -1732,31 +1722,28 @@
       <c r="W13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="X13" s="1" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="1" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="X13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
@@ -1826,31 +1813,30 @@
       <c r="W14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X14" s="1" t="str">
+      <c r="X14" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y14" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z14" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
@@ -1920,31 +1906,31 @@
       <c r="W15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X15" s="1" t="str">
+      <c r="X15" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y15" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y15" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Null</v>
-      </c>
-      <c r="Z15" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Z15" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
@@ -1968,7 +1954,7 @@
         <v>-</v>
       </c>
       <c r="K16" s="1" t="str">
-        <f t="shared" ref="K6:K68" si="18">IF(G16+5 &gt;= 20, "-")</f>
+        <f t="shared" ref="K16:K67" si="18">IF(G16+5 &gt;= 20, "-")</f>
         <v>-</v>
       </c>
       <c r="L16" s="1" t="str">
@@ -2013,31 +1999,28 @@
       <c r="W16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="X16" s="1" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="1" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="X16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C17" s="1">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
@@ -2107,31 +2090,28 @@
       <c r="W17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="X17" s="1" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="1" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="X17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z17" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C18" s="1">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
@@ -2202,31 +2182,30 @@
       <c r="W18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X18" s="1" t="str">
+      <c r="X18" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y18" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z18" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C19" s="1">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
@@ -2297,31 +2276,31 @@
       <c r="W19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="X19" s="1" t="str">
+      <c r="X19" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y19" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y19" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Null</v>
-      </c>
-      <c r="Z19" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Z19" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B20" s="1">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
+        <v>-5</v>
+      </c>
+      <c r="C20" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>46</v>
@@ -2386,31 +2365,31 @@
       <c r="W20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="X20" s="1" t="str">
+      <c r="X20" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y20" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y20" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Null</v>
-      </c>
-      <c r="Z20" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Z20" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B21" s="1">
+        <v>5</v>
+      </c>
+      <c r="B21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
+        <v>-5</v>
+      </c>
+      <c r="C21" s="4">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>47</v>
@@ -2475,31 +2454,31 @@
       <c r="W21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="X21" s="1" t="str">
+      <c r="X21" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y21" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y21" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Null</v>
-      </c>
-      <c r="Z21" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Z21" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B22" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
+        <v>-5</v>
+      </c>
+      <c r="C22" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>50</v>
@@ -2564,31 +2543,31 @@
       <c r="W22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="X22" s="1" t="str">
+      <c r="X22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y22" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y22" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Null</v>
-      </c>
-      <c r="Z22" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Z22" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B23" s="1">
+        <v>5</v>
+      </c>
+      <c r="B23" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C23" s="1">
+        <v>-5</v>
+      </c>
+      <c r="C23" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>48</v>
@@ -2653,31 +2632,31 @@
       <c r="W23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="X23" s="1" t="str">
+      <c r="X23" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y23" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Null</v>
-      </c>
-      <c r="Z23" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Z23" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B24" s="1">
+        <v>5</v>
+      </c>
+      <c r="B24" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
@@ -2744,31 +2723,28 @@
       <c r="W24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X24" s="1" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y24" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z24" s="1" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="X24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z24" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B25" s="1">
+        <v>5</v>
+      </c>
+      <c r="B25" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
@@ -2835,31 +2811,28 @@
       <c r="W25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="X25" s="1" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="1" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="X25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z25" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B26" s="1">
+        <v>5</v>
+      </c>
+      <c r="B26" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
@@ -2926,31 +2899,30 @@
       <c r="W26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="X26" s="1" t="str">
+      <c r="X26" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y26" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B27" s="1">
+        <v>5</v>
+      </c>
+      <c r="B27" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
@@ -3017,31 +2989,31 @@
       <c r="W27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X27" s="1" t="str">
+      <c r="X27" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y27" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y27" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Null</v>
-      </c>
-      <c r="Z27" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Z27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B28" s="1">
+        <v>5</v>
+      </c>
+      <c r="B28" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C28" s="1">
+        <v>5</v>
+      </c>
+      <c r="C28" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
@@ -3108,31 +3080,28 @@
       <c r="W28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="X28" s="1" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y28" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z28" s="1" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="X28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z28" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B29" s="1">
+        <v>5</v>
+      </c>
+      <c r="B29" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C29" s="1">
+        <v>5</v>
+      </c>
+      <c r="C29" s="4">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
@@ -3201,31 +3170,28 @@
       <c r="W29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="X29" s="1" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z29" s="1" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="X29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z29" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B30" s="1">
+        <v>5</v>
+      </c>
+      <c r="B30" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="C30" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
@@ -3295,31 +3261,30 @@
       <c r="W30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="X30" s="1" t="str">
+      <c r="X30" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y30" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z30" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z30" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B31" s="1">
+        <v>5</v>
+      </c>
+      <c r="B31" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C31" s="1">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
@@ -3389,31 +3354,31 @@
       <c r="W31" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="X31" s="1" t="str">
+      <c r="X31" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y31" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y31" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Null</v>
-      </c>
-      <c r="Z31" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Z31" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B32" s="1">
+        <v>5</v>
+      </c>
+      <c r="B32" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C32" s="1">
+        <v>10</v>
+      </c>
+      <c r="C32" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
@@ -3481,31 +3446,28 @@
       <c r="W32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="X32" s="1" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z32" s="1" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="X32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z32" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B33" s="1">
+        <v>5</v>
+      </c>
+      <c r="B33" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C33" s="1">
+        <v>10</v>
+      </c>
+      <c r="C33" s="4">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
@@ -3575,31 +3537,28 @@
       <c r="W33" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="X33" s="1" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z33" s="1" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="X33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z33" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B34" s="1">
+        <v>5</v>
+      </c>
+      <c r="B34" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C34" s="1">
+        <v>10</v>
+      </c>
+      <c r="C34" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
@@ -3670,31 +3629,30 @@
       <c r="W34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="X34" s="1" t="str">
+      <c r="X34" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y34" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z34" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z34" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B35" s="1">
+        <v>5</v>
+      </c>
+      <c r="B35" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C35" s="1">
+        <v>10</v>
+      </c>
+      <c r="C35" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
@@ -3765,31 +3723,31 @@
       <c r="W35" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="X35" s="1" t="str">
+      <c r="X35" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y35" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y35" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Null</v>
-      </c>
-      <c r="Z35" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Z35" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B36" s="1">
+        <v>10</v>
+      </c>
+      <c r="B36" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C36" s="1">
+        <v>-5</v>
+      </c>
+      <c r="C36" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>62</v>
@@ -3806,7 +3764,7 @@
       <c r="I36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="J36" s="5" t="s">
         <v>74</v>
       </c>
       <c r="K36" s="1" t="s">
@@ -3815,7 +3773,7 @@
       <c r="L36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M36" s="7" t="s">
+      <c r="M36" s="5" t="s">
         <v>74</v>
       </c>
       <c r="N36" s="1" t="s">
@@ -3853,31 +3811,31 @@
       <c r="W36" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="X36" s="1" t="str">
+      <c r="X36" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y36" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y36" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Null</v>
-      </c>
-      <c r="Z36" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Z36" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B37" s="1">
+        <v>10</v>
+      </c>
+      <c r="B37" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C37" s="1">
+        <v>-5</v>
+      </c>
+      <c r="C37" s="4">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>63</v>
@@ -3894,7 +3852,7 @@
       <c r="I37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="J37" s="5" t="s">
         <v>75</v>
       </c>
       <c r="K37" s="1" t="s">
@@ -3903,7 +3861,7 @@
       <c r="L37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M37" s="7" t="s">
+      <c r="M37" s="5" t="s">
         <v>75</v>
       </c>
       <c r="N37" s="1" t="s">
@@ -3941,31 +3899,31 @@
       <c r="W37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="X37" s="1" t="str">
+      <c r="X37" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y37" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y37" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Null</v>
-      </c>
-      <c r="Z37" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Z37" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B38" s="1">
+        <v>10</v>
+      </c>
+      <c r="B38" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C38" s="1">
+        <v>-5</v>
+      </c>
+      <c r="C38" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>64</v>
@@ -3982,7 +3940,7 @@
       <c r="I38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K38" s="1" t="s">
@@ -3991,7 +3949,7 @@
       <c r="L38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M38" s="7" t="s">
+      <c r="M38" s="5" t="s">
         <v>76</v>
       </c>
       <c r="N38" s="1" t="s">
@@ -4029,31 +3987,31 @@
       <c r="W38" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="X38" s="1" t="str">
+      <c r="X38" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y38" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y38" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Null</v>
-      </c>
-      <c r="Z38" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Z38" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="A39" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B39" s="1">
+        <v>10</v>
+      </c>
+      <c r="B39" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C39" s="1">
+        <v>-5</v>
+      </c>
+      <c r="C39" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>65</v>
@@ -4070,7 +4028,7 @@
       <c r="I39" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J39" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K39" s="1" t="s">
@@ -4079,7 +4037,7 @@
       <c r="L39" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M39" s="7" t="s">
+      <c r="M39" s="5" t="s">
         <v>77</v>
       </c>
       <c r="N39" s="1" t="s">
@@ -4117,31 +4075,31 @@
       <c r="W39" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="X39" s="1" t="str">
+      <c r="X39" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y39" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y39" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Null</v>
-      </c>
-      <c r="Z39" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Z39" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="A40" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B40" s="1">
+        <v>10</v>
+      </c>
+      <c r="B40" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>66</v>
@@ -4207,31 +4165,28 @@
       <c r="W40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="X40" s="1" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z40" s="1" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="X40" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y40" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z40" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="A41" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B41" s="1">
+        <v>10</v>
+      </c>
+      <c r="B41" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>67</v>
@@ -4297,31 +4252,28 @@
       <c r="W41" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="X41" s="1" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y41" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z41" s="1" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="X41" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y41" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z41" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="A42" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B42" s="1">
+        <v>10</v>
+      </c>
+      <c r="B42" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>68</v>
@@ -4387,31 +4339,30 @@
       <c r="W42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="X42" s="1" t="str">
+      <c r="X42" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y42" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z42" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y42" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z42" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="A43" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B43" s="1">
+        <v>10</v>
+      </c>
+      <c r="B43" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>69</v>
@@ -4477,31 +4428,31 @@
       <c r="W43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="X43" s="1" t="str">
+      <c r="X43" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y43" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y43" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Null</v>
-      </c>
-      <c r="Z43" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Z43" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="A44" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B44" s="1">
+        <v>10</v>
+      </c>
+      <c r="B44" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C44" s="1">
+        <v>5</v>
+      </c>
+      <c r="C44" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
@@ -4517,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="2" t="str">
-        <f t="shared" ref="I36:I51" si="20">IF(G44+10 &gt;= 20, "-")</f>
+        <f t="shared" ref="I44:I51" si="20">IF(G44+10 &gt;= 20, "-")</f>
         <v>-</v>
       </c>
       <c r="J44" s="1" t="str">
@@ -4568,31 +4519,28 @@
       <c r="W44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="X44" s="1" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y44" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z44" s="1" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="X44" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y44" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z44" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="A45" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B45" s="1">
+        <v>10</v>
+      </c>
+      <c r="B45" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C45" s="1">
+        <v>5</v>
+      </c>
+      <c r="C45" s="4">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
@@ -4661,31 +4609,28 @@
       <c r="W45" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="X45" s="1" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y45" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z45" s="1" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="X45" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y45" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z45" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="A46" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B46" s="1">
+        <v>10</v>
+      </c>
+      <c r="B46" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C46" s="1">
+        <v>5</v>
+      </c>
+      <c r="C46" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
@@ -4755,31 +4700,30 @@
       <c r="W46" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="X46" s="1" t="str">
+      <c r="X46" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y46" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z46" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y46" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z46" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="A47" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B47" s="1">
+        <v>10</v>
+      </c>
+      <c r="B47" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C47" s="1">
+        <v>5</v>
+      </c>
+      <c r="C47" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
@@ -4849,31 +4793,31 @@
       <c r="W47" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="X47" s="1" t="str">
+      <c r="X47" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y47" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y47" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Null</v>
-      </c>
-      <c r="Z47" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Z47" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="A48" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B48" s="1">
+        <v>10</v>
+      </c>
+      <c r="B48" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C48" s="1">
+        <v>10</v>
+      </c>
+      <c r="C48" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
@@ -4942,31 +4886,28 @@
       <c r="W48" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="X48" s="1" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y48" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z48" s="1" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="X48" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y48" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z48" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+      <c r="A49" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B49" s="1">
+        <v>10</v>
+      </c>
+      <c r="B49" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C49" s="1">
+        <v>10</v>
+      </c>
+      <c r="C49" s="4">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
@@ -5037,31 +4978,28 @@
       <c r="W49" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="X49" s="1" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y49" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z49" s="1" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="X49" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y49" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z49" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="A50" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B50" s="1">
+        <v>10</v>
+      </c>
+      <c r="B50" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C50" s="1">
+        <v>10</v>
+      </c>
+      <c r="C50" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
@@ -5133,31 +5071,30 @@
       <c r="W50" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X50" s="1" t="str">
+      <c r="X50" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y50" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z50" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z50" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+      <c r="A51" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B51" s="1">
+        <v>10</v>
+      </c>
+      <c r="B51" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C51" s="1">
+        <v>10</v>
+      </c>
+      <c r="C51" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
@@ -5229,31 +5166,31 @@
       <c r="W51" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="X51" s="1" t="str">
+      <c r="X51" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y51" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y51" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Null</v>
-      </c>
-      <c r="Z51" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Z51" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+      <c r="A52" s="4">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B52" s="1">
+        <v>15</v>
+      </c>
+      <c r="B52" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C52" s="1">
+        <v>-5</v>
+      </c>
+      <c r="C52" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>78</v>
@@ -5270,7 +5207,7 @@
       <c r="I52" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J52" s="7" t="s">
+      <c r="J52" s="5" t="s">
         <v>90</v>
       </c>
       <c r="K52" s="1" t="s">
@@ -5279,7 +5216,7 @@
       <c r="L52" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M52" s="7" t="s">
+      <c r="M52" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N52" s="1" t="s">
@@ -5292,7 +5229,7 @@
         <v>70</v>
       </c>
       <c r="Q52" s="1" t="str">
-        <f t="shared" ref="Q6:Q68" si="21">IF(F52+5&gt;=20,"-")</f>
+        <f t="shared" ref="Q52:Q67" si="21">IF(F52+5&gt;=20,"-")</f>
         <v>-</v>
       </c>
       <c r="R52" s="1" t="str">
@@ -5316,34 +5253,34 @@
         <v>-</v>
       </c>
       <c r="W52" s="1" t="str">
-        <f t="shared" ref="W6:W68" si="22">IF(F52 + 5 &gt;= 20,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="X52" s="1" t="str">
+        <f t="shared" ref="W52:W67" si="22">IF(F52 + 5 &gt;= 20,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="X52" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y52" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y52" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Null</v>
-      </c>
-      <c r="Z52" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Z52" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+      <c r="A53" s="4">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B53" s="1">
+        <v>15</v>
+      </c>
+      <c r="B53" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C53" s="1">
+        <v>-5</v>
+      </c>
+      <c r="C53" s="4">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>79</v>
@@ -5360,7 +5297,7 @@
       <c r="I53" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J53" s="7" t="s">
+      <c r="J53" s="5" t="s">
         <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
@@ -5369,7 +5306,7 @@
       <c r="L53" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M53" s="7" t="s">
+      <c r="M53" s="5" t="s">
         <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
@@ -5409,31 +5346,31 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="X53" s="1" t="str">
+      <c r="X53" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y53" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y53" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Null</v>
-      </c>
-      <c r="Z53" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Z53" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+      <c r="A54" s="4">
         <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B54" s="4">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="C54" s="4">
+        <f t="shared" si="2"/>
         <v>20</v>
-      </c>
-      <c r="B54" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C54" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>80</v>
@@ -5450,7 +5387,7 @@
       <c r="I54" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J54" s="7" t="s">
+      <c r="J54" s="5" t="s">
         <v>92</v>
       </c>
       <c r="K54" s="1" t="s">
@@ -5459,7 +5396,7 @@
       <c r="L54" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M54" s="7" t="s">
+      <c r="M54" s="5" t="s">
         <v>92</v>
       </c>
       <c r="N54" s="1" t="s">
@@ -5499,31 +5436,31 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="X54" s="1" t="str">
+      <c r="X54" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y54" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y54" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Null</v>
-      </c>
-      <c r="Z54" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Z54" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+      <c r="A55" s="4">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B55" s="1">
+        <v>15</v>
+      </c>
+      <c r="B55" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C55" s="1">
+        <v>-5</v>
+      </c>
+      <c r="C55" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>81</v>
@@ -5540,7 +5477,7 @@
       <c r="I55" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J55" s="7" t="s">
+      <c r="J55" s="5" t="s">
         <v>93</v>
       </c>
       <c r="K55" s="1" t="s">
@@ -5549,7 +5486,7 @@
       <c r="L55" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M55" s="7" t="s">
+      <c r="M55" s="5" t="s">
         <v>93</v>
       </c>
       <c r="N55" s="1" t="s">
@@ -5589,31 +5526,31 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="X55" s="1" t="str">
+      <c r="X55" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y55" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y55" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Null</v>
-      </c>
-      <c r="Z55" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Z55" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+      <c r="A56" s="4">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B56" s="1">
+        <v>15</v>
+      </c>
+      <c r="B56" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="C56" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>82</v>
@@ -5681,31 +5618,28 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="X56" s="1" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y56" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z56" s="1" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="X56" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y56" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z56" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+      <c r="A57" s="4">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B57" s="1">
+        <v>15</v>
+      </c>
+      <c r="B57" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="C57" s="4">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>83</v>
@@ -5773,31 +5707,28 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="X57" s="1" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y57" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z57" s="1" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="X57" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y57" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z57" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+      <c r="A58" s="4">
         <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B58" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C58" s="4">
+        <f t="shared" si="2"/>
         <v>20</v>
-      </c>
-      <c r="B58" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C58" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>84</v>
@@ -5865,31 +5796,30 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="X58" s="1" t="str">
+      <c r="X58" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y58" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z58" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y58" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z58" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+      <c r="A59" s="4">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B59" s="1">
+        <v>15</v>
+      </c>
+      <c r="B59" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="C59" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>85</v>
@@ -5957,31 +5887,31 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="X59" s="1" t="str">
+      <c r="X59" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y59" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y59" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Null</v>
-      </c>
-      <c r="Z59" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Z59" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="A60" s="4">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B60" s="1">
+        <v>15</v>
+      </c>
+      <c r="B60" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C60" s="1">
+        <v>5</v>
+      </c>
+      <c r="C60" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
@@ -6050,31 +5980,28 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="X60" s="1" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y60" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z60" s="1" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="X60" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y60" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z60" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+      <c r="A61" s="4">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B61" s="1">
+        <v>15</v>
+      </c>
+      <c r="B61" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C61" s="1">
+        <v>5</v>
+      </c>
+      <c r="C61" s="4">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
@@ -6145,31 +6072,28 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="X61" s="1" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y61" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z61" s="1" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="X61" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y61" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z61" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+      <c r="A62" s="4">
         <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B62" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C62" s="4">
+        <f t="shared" si="2"/>
         <v>20</v>
-      </c>
-      <c r="B62" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C62" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
@@ -6241,31 +6165,30 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="X62" s="1" t="str">
+      <c r="X62" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y62" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z62" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y62" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z62" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+      <c r="A63" s="4">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B63" s="1">
+        <v>15</v>
+      </c>
+      <c r="B63" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C63" s="1">
+        <v>5</v>
+      </c>
+      <c r="C63" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
@@ -6337,31 +6260,31 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="X63" s="1" t="str">
+      <c r="X63" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y63" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y63" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Null</v>
-      </c>
-      <c r="Z63" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Z63" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+      <c r="A64" s="4">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B64" s="1">
+        <v>15</v>
+      </c>
+      <c r="B64" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C64" s="1">
+        <v>10</v>
+      </c>
+      <c r="C64" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
@@ -6432,31 +6355,28 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="X64" s="1" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y64" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z64" s="1" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="X64" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y64" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z64" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+      <c r="A65" s="4">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B65" s="1">
+        <v>15</v>
+      </c>
+      <c r="B65" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C65" s="1">
+        <v>10</v>
+      </c>
+      <c r="C65" s="4">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
@@ -6529,31 +6449,28 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="X65" s="1" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y65" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z65" s="1" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="X65" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y65" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z65" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+      <c r="A66" s="4">
         <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B66" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C66" s="4">
+        <f t="shared" si="2"/>
         <v>20</v>
-      </c>
-      <c r="B66" s="1">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C66" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
@@ -6627,31 +6544,30 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="X66" s="1" t="str">
+      <c r="X66" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y66" s="1" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z66" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y66" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z66" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+      <c r="A67" s="4">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B67" s="1">
+        <v>15</v>
+      </c>
+      <c r="B67" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C67" s="1">
+        <v>10</v>
+      </c>
+      <c r="C67" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>95</v>
@@ -6727,31 +6643,31 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="X67" s="1" t="str">
+      <c r="X67" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y67" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y67" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Null</v>
-      </c>
-      <c r="Z67" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Z67" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+      <c r="A68" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B68" s="1">
+        <v>0</v>
+      </c>
+      <c r="B68" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C68" s="1">
+        <v>-5</v>
+      </c>
+      <c r="C68" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>95</v>
@@ -6821,90 +6737,90 @@
       <c r="W68" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="X68" s="1" t="str">
+      <c r="X68" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Null</v>
-      </c>
-      <c r="Y68" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y68" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Null</v>
-      </c>
-      <c r="Z68" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="Z68" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Null</v>
+        <v>-</v>
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
     </row>
     <row r="81" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
     </row>
     <row r="82" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
     </row>
     <row r="83" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
     </row>
     <row r="84" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
     </row>
     <row r="85" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
     </row>
     <row r="86" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
     </row>
     <row r="87" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
     </row>
     <row r="88" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
